--- a/old_database/crypto/bioSample/bioSample_2496.xlsx
+++ b/old_database/crypto/bioSample/bioSample_2496.xlsx
@@ -61,7 +61,7 @@
     <t>09.29.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2496</t>
   </si>
   <si>
     <t>CNAG_00193</t>
